--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGit\DangoFrame\Client\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1224FE-A649-4EF8-ACBA-A2EC8A41FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF36233-954E-4468-A1F5-166B80E5BAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1500" windowWidth="21600" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -112,52 +112,75 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>test.TbDemoGroupDefineFromExcel</t>
-  </si>
-  <si>
-    <t>DemoGroup</t>
-  </si>
-  <si>
-    <t>test/demo_group.xlsx</t>
-  </si>
-  <si>
-    <t>test.TbDefineFromExcel2</t>
-  </si>
-  <si>
-    <t>DefineFromExcel2</t>
-  </si>
-  <si>
-    <t>test/define_from_excel.xlsx</t>
-  </si>
-  <si>
-    <t>test/test_desc.xlsx</t>
-  </si>
-  <si>
-    <t>test.TbTestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbTestExcelBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestExcelBean1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test_excel_bean.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
+    <t>TbEntity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.Entity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/Entity.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.Music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMusic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/Music.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/Scene.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbSound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.Sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/Sound.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbUIForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.UIForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/UIForm.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbUISound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.UISound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs/UISound.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,6 +206,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,70 +655,92 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>